--- a/pred_ohlcv/54_21/2019-10-15 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 GXC ohlcv.xlsx
@@ -1380,7 +1380,7 @@
         <v>10371.1224</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>13787.2724</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>56294.33151940999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>57053.01171940999</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>56235.23381940999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>75453.96111941</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>70684.31741941</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>74213.34661941</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>65865.67191941</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>69276.56631941001</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>60865.67191941001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>58550.14771941001</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>60561.89521941001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>60561.89521941001</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>52101.23561941001</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>54820.47691941001</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>55753.79911941001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>56678.56641941001</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>56679.56641941001</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>56665.14701941001</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>56622.28481941001</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>56672.27491941001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>45954.27501941001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>36321.93411941001</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>36836.31741941001</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>79827.55359756002</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>57533.48430262002</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>78886.77210262</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>127081.43600986</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>164590.57090986</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>176775.93470986</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>151045.81990986</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>146277.61450986</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>149822.85130986</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>146439.69010986</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>137050.29120986</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>137050.29120986</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>122265.61070986</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>94946.91000985997</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>83085.40350985997</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-15 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 GXC ohlcv.xlsx
@@ -1432,7 +1432,7 @@
         <v>14899.2724</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>56294.33151940999</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>57053.01171940999</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>56235.23381940999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>75453.96111941</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>70684.31741941</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>74213.34661941</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>65865.67191941</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>69276.56631941001</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>60865.67191941001</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>58550.14771941001</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>60561.89521941001</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>60561.89521941001</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>52101.23561941001</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>54820.47691941001</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>55753.79911941001</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>56678.56641941001</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>56679.56641941001</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>56665.14701941001</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>56622.28481941001</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>56672.27491941001</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>45954.27501941001</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>36321.93411941001</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>36836.31741941001</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>79827.55359756002</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>57533.48430262002</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>78886.77210262</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>127081.43600986</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>132862.70320986</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>164590.57090986</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>176775.93470986</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>151045.81990986</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>146277.61450986</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>149822.85130986</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>146439.69010986</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>137050.29120986</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>137050.29120986</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>122265.61070986</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>94946.91000985997</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>83085.40350985997</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
